--- a/Signum.Engine.Extensions/Excel/plainExcelTemplate.xlsx
+++ b/Signum.Engine.Extensions/Excel/plainExcelTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="10515"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>HeaderCell</t>
   </si>
@@ -35,16 +35,19 @@
   </si>
   <si>
     <t>Decimal</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +62,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,11 +98,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -100,20 +112,27 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Título 2" xfId="1" builtinId="17"/>
+  <cellStyles count="3">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="2" builtinId="15"/>
+    <cellStyle name="Überschrift 2" xfId="1" builtinId="17"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +170,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -185,6 +204,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -219,9 +239,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,54 +415,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1">
-      <c r="B2" s="2">
+    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
         <v>31361</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="3">
         <v>30278.40625</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="4">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="4">
         <v>12</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G3" s="5">
         <v>12</v>
       </c>
     </row>

--- a/Signum.Engine.Extensions/Excel/plainExcelTemplate.xlsx
+++ b/Signum.Engine.Extensions/Excel/plainExcelTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>HeaderCell</t>
   </si>
@@ -38,16 +38,34 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Yuan</t>
+  </si>
+  <si>
+    <t>Pound</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="169" formatCode="[$¥-804]#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="[$£-809]#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +88,13 @@
       <name val="Cambria"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,12 +123,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -113,11 +139,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="2" builtinId="15"/>
-    <cellStyle name="Überschrift 2" xfId="1" builtinId="17"/>
+  <cellStyles count="4">
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -130,9 +162,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,7 +202,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -242,7 +274,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,23 +448,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,8 +486,20 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>31361</v>
       </c>
@@ -469,6 +513,18 @@
       </c>
       <c r="G3" s="5">
         <v>12</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Signum.Engine.Extensions/Excel/plainExcelTemplate.xlsx
+++ b/Signum.Engine.Extensions/Excel/plainExcelTemplate.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\IntTec\Extensions\Signum.Engine.Extensions\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="10515"/>
+    <workbookView xWindow="1065" yWindow="60" windowWidth="20115" windowHeight="10515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>HeaderCell</t>
   </si>
@@ -50,20 +55,24 @@
   </si>
   <si>
     <t>Pound</t>
+  </si>
+  <si>
+    <t>Unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="169" formatCode="[$¥-804]#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="[$£-809]#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="167" formatCode="[$¥-804]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="[$£-809]#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="173" formatCode="0&quot; km&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -129,7 +138,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -139,17 +148,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="2" builtinId="15"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="2" builtinId="15"/>
+    <cellStyle name="Überschrift 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Währung" xfId="3" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -157,12 +167,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -204,7 +217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,7 +252,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,23 +461,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,8 +511,11 @@
       <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>31361</v>
       </c>
@@ -526,6 +542,48 @@
       <c r="K3" s="11">
         <v>0</v>
       </c>
+      <c r="L3" s="14">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Signum.Engine.Extensions/Excel/plainExcelTemplate.xlsx
+++ b/Signum.Engine.Extensions/Excel/plainExcelTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="60" windowWidth="20115" windowHeight="10515"/>
+    <workbookView xWindow="1995" yWindow="60" windowWidth="20115" windowHeight="10515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>HeaderCell</t>
   </si>
@@ -45,34 +45,21 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Euro</t>
-  </si>
-  <si>
-    <t>Dollar</t>
-  </si>
-  <si>
-    <t>Yuan</t>
-  </si>
-  <si>
-    <t>Pound</t>
-  </si>
-  <si>
-    <t>Unit</t>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="167" formatCode="[$¥-804]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$£-809]#,##0.00"/>
     <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="173" formatCode="0&quot; km&quot;"/>
+    <numFmt numFmtId="170" formatCode="0&quot; km&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -132,11 +119,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -149,13 +137,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Prozent" xfId="4" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift" xfId="2" builtinId="15"/>
     <cellStyle name="Überschrift 2" xfId="1" builtinId="17"/>
@@ -464,7 +453,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,18 +491,8 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
@@ -530,60 +509,52 @@
       <c r="G3" s="5">
         <v>12</v>
       </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0</v>
-      </c>
-      <c r="L3" s="14">
-        <v>1245</v>
-      </c>
+      <c r="H3" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L4" s="14"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L5" s="14"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L6" s="14"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L7" s="14"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L8" s="14"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L9" s="14"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L10" s="14"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L11" s="14"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L12" s="14"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L13" s="14"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L14" s="14"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L15" s="14"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L16" s="14"/>
+      <c r="L16" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Signum.Engine.Extensions/Excel/plainExcelTemplate.xlsx
+++ b/Signum.Engine.Extensions/Excel/plainExcelTemplate.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\IntTec\Extensions\Signum.Engine.Extensions\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Agile360\Framework\Signum.Engine.Extensions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061F9062-C7B1-491F-9C79-56185E9D402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="60" windowWidth="20115" windowHeight="10515"/>
+    <workbookView xWindow="2985" yWindow="5085" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>HeaderCell</t>
   </si>
@@ -46,20 +58,23 @@
   </si>
   <si>
     <t>Percentage</t>
+  </si>
+  <si>
+    <t>Hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$¥-804]#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="[$£-809]#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0&quot; km&quot;"/>
+    <numFmt numFmtId="166" formatCode="[$¥-804]#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$£-809]#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0&quot; km&quot;"/>
+    <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ am/pm"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -137,18 +152,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Prozent" xfId="4" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="2" builtinId="15"/>
-    <cellStyle name="Überschrift 2" xfId="1" builtinId="17"/>
-    <cellStyle name="Währung" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
+    <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -164,7 +179,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -239,6 +254,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -274,6 +306,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,14 +498,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
@@ -491,6 +540,9 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
@@ -509,52 +561,54 @@
       <c r="G3" s="5">
         <v>12</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>0.2</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="14">
+        <v>0.5</v>
+      </c>
       <c r="J3" s="11"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="13"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L4" s="13"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L5" s="13"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L6" s="13"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L7" s="13"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L8" s="13"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L9" s="13"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L10" s="13"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L11" s="13"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L12" s="13"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L13" s="13"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L14" s="13"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L15" s="13"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L16" s="13"/>
+      <c r="L16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Signum.Engine.Extensions/Excel/plainExcelTemplate.xlsx
+++ b/Signum.Engine.Extensions/Excel/plainExcelTemplate.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Agile360\Framework\Signum.Engine.Extensions\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Signum\southwind\Framework\Signum.Engine.Extensions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061F9062-C7B1-491F-9C79-56185E9D402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="5085" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="5085" windowWidth="21600" windowHeight="12735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>HeaderCell</t>
   </si>
@@ -61,20 +60,23 @@
   </si>
   <si>
     <t>Hour</t>
+  </si>
+  <si>
+    <t>Boolean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="[$¥-804]#,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$£-809]#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="0&quot; km&quot;"/>
-    <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+    <numFmt numFmtId="168" formatCode="0&quot; km&quot;"/>
+    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -154,9 +156,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
@@ -254,23 +256,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -306,23 +291,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -498,24 +466,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.6">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,10 +511,12 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2">
         <v>31361</v>
       </c>
@@ -567,47 +537,49 @@
       <c r="I3" s="14">
         <v>0.5</v>
       </c>
-      <c r="J3" s="11"/>
+      <c r="J3" s="11" t="b">
+        <v>0</v>
+      </c>
       <c r="K3" s="10"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L16" s="12"/>
     </row>
   </sheetData>
